--- a/노인_시도별정책인지도.xlsx
+++ b/노인_시도별정책인지도.xlsx
@@ -8,20 +8,21 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\2022PublicDataServiceProject_NIA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7EEBCD2-530B-49DF-B60C-6FA8B5F2A558}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F98D10AD-884C-4544-BD2C-AE6E95804F32}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1270" yWindow="550" windowWidth="13240" windowHeight="11260" xr2:uid="{018E59AD-6733-4CA2-99BC-3BC18B0924A0}"/>
+    <workbookView xWindow="1760" yWindow="2230" windowWidth="13240" windowHeight="11260" firstSheet="3" activeTab="6" xr2:uid="{018E59AD-6733-4CA2-99BC-3BC18B0924A0}"/>
   </bookViews>
   <sheets>
     <sheet name="맞춤형 노인돌봄서비스" sheetId="1" r:id="rId1"/>
     <sheet name="치매조기검진서비스" sheetId="2" r:id="rId2"/>
     <sheet name="치매치료관리비 지원서비스" sheetId="3" r:id="rId3"/>
     <sheet name="치매전담요양기관 운영" sheetId="4" r:id="rId4"/>
-    <sheet name="치매안심센터" sheetId="5" r:id="rId5"/>
-    <sheet name="노인보호전문기관(노인학대예방 및 대응기관)" sheetId="6" r:id="rId6"/>
-    <sheet name="성년후견인제도" sheetId="7" r:id="rId7"/>
-    <sheet name="주택연금" sheetId="8" r:id="rId8"/>
-    <sheet name="농지연금" sheetId="9" r:id="rId9"/>
+    <sheet name="Sheet1" sheetId="10" r:id="rId5"/>
+    <sheet name="치매안심센터" sheetId="5" r:id="rId6"/>
+    <sheet name="노인보호전문기관(노인학대예방 및 대응기관)" sheetId="6" r:id="rId7"/>
+    <sheet name="성년후견인제도" sheetId="7" r:id="rId8"/>
+    <sheet name="주택연금" sheetId="8" r:id="rId9"/>
+    <sheet name="농지연금" sheetId="9" r:id="rId10"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -44,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="225" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="248" uniqueCount="32">
   <si>
     <t>(단위: %, 명)</t>
   </si>
@@ -126,12 +127,38 @@
 잘 알지 못한다</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>주택연금</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>노인보호전문기관</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>치매안심센터</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>치매전담요양기관</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>치매치료관리비 지원 서비스</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>치매조기검진서비스</t>
+  </si>
+  <si>
+    <t>맞춤형 노인돌봄서비스</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -142,6 +169,22 @@
     </font>
     <font>
       <sz val="8"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="6"/>
+      <color theme="1"/>
       <name val="맑은 고딕"/>
       <family val="2"/>
       <charset val="129"/>
@@ -170,7 +213,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -179,6 +222,15 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -450,6 +502,7 @@
         <c:crossAx val="1745155872"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
+        <c:majorUnit val="10"/>
       </c:valAx>
       <c:spPr>
         <a:noFill/>
@@ -504,6 +557,641 @@
 </file>
 
 <file path=xl/charts/chart10.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="ko-KR"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="이사만루체 Light" panose="00000300000000000000" pitchFamily="2" charset="-127"/>
+                <a:ea typeface="이사만루체 Light" panose="00000300000000000000" pitchFamily="2" charset="-127"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="ko-KR" altLang="en-US"/>
+              <a:t>성년후견인제도 인지도</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="이사만루체 Light" panose="00000300000000000000" pitchFamily="2" charset="-127"/>
+              <a:ea typeface="이사만루체 Light" panose="00000300000000000000" pitchFamily="2" charset="-127"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ko-KR"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>성년후견인제도!$A$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>전국</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="92D050"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>성년후견인제도!$B$1:$D$1</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>잘 알고 있다</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>들어봤지만
+잘 알지 못한다</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>모른다</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>성년후견인제도!$B$2:$D$2</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>34.200000000000003</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>55.8</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-A0C2-4E71-B0B0-40A2757FEF6F}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="1909540784"/>
+        <c:axId val="1909545776"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="1909540784"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="이사만루체 Light" panose="00000300000000000000" pitchFamily="2" charset="-127"/>
+                <a:ea typeface="이사만루체 Light" panose="00000300000000000000" pitchFamily="2" charset="-127"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ko-KR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1909545776"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1909545776"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="이사만루체 Light" panose="00000300000000000000" pitchFamily="2" charset="-127"/>
+                <a:ea typeface="이사만루체 Light" panose="00000300000000000000" pitchFamily="2" charset="-127"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ko-KR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1909540784"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr>
+          <a:latin typeface="이사만루체 Light" panose="00000300000000000000" pitchFamily="2" charset="-127"/>
+          <a:ea typeface="이사만루체 Light" panose="00000300000000000000" pitchFamily="2" charset="-127"/>
+        </a:defRPr>
+      </a:pPr>
+      <a:endParaRPr lang="ko-KR"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart11.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="ko-KR"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="이사만루체 Light" panose="00000300000000000000" pitchFamily="2" charset="-127"/>
+                <a:ea typeface="이사만루체 Light" panose="00000300000000000000" pitchFamily="2" charset="-127"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="ko-KR" altLang="en-US"/>
+              <a:t>주택연금 인지도</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="이사만루체 Light" panose="00000300000000000000" pitchFamily="2" charset="-127"/>
+              <a:ea typeface="이사만루체 Light" panose="00000300000000000000" pitchFamily="2" charset="-127"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ko-KR"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>주택연금!$A$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>전국</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="92D050"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>주택연금!$B$1:$D$1</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>잘 알고 있다</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>들어봤지만
+잘 알지 못한다</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>모른다</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>주택연금!$B$2:$D$2</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>29.4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>44.3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>26.3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-3B76-459A-8CFD-888851D80B03}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="1909544528"/>
+        <c:axId val="1909535376"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="1909544528"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="이사만루체 Light" panose="00000300000000000000" pitchFamily="2" charset="-127"/>
+                <a:ea typeface="이사만루체 Light" panose="00000300000000000000" pitchFamily="2" charset="-127"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ko-KR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1909535376"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1909535376"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="이사만루체 Light" panose="00000300000000000000" pitchFamily="2" charset="-127"/>
+                <a:ea typeface="이사만루체 Light" panose="00000300000000000000" pitchFamily="2" charset="-127"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ko-KR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1909544528"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+        <c:majorUnit val="10"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr>
+          <a:latin typeface="이사만루체 Light" panose="00000300000000000000" pitchFamily="2" charset="-127"/>
+          <a:ea typeface="이사만루체 Light" panose="00000300000000000000" pitchFamily="2" charset="-127"/>
+        </a:defRPr>
+      </a:pPr>
+      <a:endParaRPr lang="ko-KR"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart12.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="ko-KR"/>
@@ -765,6 +1453,7 @@
         <c:crossAx val="1970582080"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
+        <c:majorUnit val="10"/>
       </c:valAx>
       <c:spPr>
         <a:noFill/>
@@ -1846,6 +2535,7 @@
         <c:crossAx val="1909544112"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
+        <c:majorUnit val="10"/>
       </c:valAx>
       <c:spPr>
         <a:noFill/>
@@ -2163,6 +2853,7 @@
         <c:crossAx val="1745151712"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
+        <c:majorUnit val="10"/>
       </c:valAx>
       <c:spPr>
         <a:noFill/>
@@ -2480,6 +3171,7 @@
         <c:crossAx val="1909542864"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
+        <c:majorUnit val="10"/>
       </c:valAx>
       <c:spPr>
         <a:noFill/>
@@ -2537,6 +3229,875 @@
 </file>
 
 <file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="ko-KR"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$F$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>잘 알고 있다</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent6">
+                <a:lumMod val="60000"/>
+                <a:lumOff val="40000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$G$2:$I$2</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>주택연금</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>노인보호전문기관</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>맞춤형 노인돌봄서비스</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$G$3:$I$3</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>29.4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>21.9</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>38.6</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-4282-4CCD-B2F6-3319BE8E5E0C}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$F$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>들어봤지만
+잘 알지 못한다</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent6">
+                <a:lumMod val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$G$2:$I$2</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>주택연금</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>노인보호전문기관</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>맞춤형 노인돌봄서비스</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$G$4:$I$4</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>44.3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>43.3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>46.9</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-4282-4CCD-B2F6-3319BE8E5E0C}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$F$5</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>모른다</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent6">
+                <a:lumMod val="20000"/>
+                <a:lumOff val="80000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$G$2:$I$2</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>주택연금</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>노인보호전문기관</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>맞춤형 노인돌봄서비스</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$G$5:$I$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>26.3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>34.9</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>14.5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-4282-4CCD-B2F6-3319BE8E5E0C}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:axId val="1493598623"/>
+        <c:axId val="1493581567"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="1493598623"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ko-KR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1493581567"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1493581567"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ko-KR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1493598623"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+        <c:majorUnit val="10"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ko-KR"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="ko-KR"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="ko-KR"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$F$8</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>잘 알고 있다</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent6">
+                <a:lumMod val="60000"/>
+                <a:lumOff val="40000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$G$7:$J$7</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>치매조기검진서비스</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>치매치료관리비 지원 서비스</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>치매전담요양기관</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>치매안심센터</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$G$8:$J$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>44.1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>29.7</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>26.9</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>26</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-FD1B-4ED6-9038-269EF41E284B}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$F$9</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>들어봤지만
+잘 알지 못한다</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent6">
+                <a:lumMod val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$G$7:$J$7</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>치매조기검진서비스</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>치매치료관리비 지원 서비스</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>치매전담요양기관</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>치매안심센터</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$G$9:$J$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>42.2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>44.7</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>45.8</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>45.5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-FD1B-4ED6-9038-269EF41E284B}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$F$10</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>모른다</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent6">
+                <a:lumMod val="20000"/>
+                <a:lumOff val="80000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$G$7:$J$7</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>치매조기검진서비스</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>치매치료관리비 지원 서비스</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>치매전담요양기관</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>치매안심센터</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$G$10:$J$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>13.8</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>25.7</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>27.2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>28.5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-FD1B-4ED6-9038-269EF41E284B}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="1493609439"/>
+        <c:axId val="1493611935"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="1493609439"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ko-KR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1493611935"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1493611935"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ko-KR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1493609439"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+        <c:majorUnit val="10"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ko-KR"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="ko-KR"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="ko-KR"/>
@@ -2797,6 +4358,7 @@
         <c:crossAx val="1970582496"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
+        <c:majorUnit val="10"/>
       </c:valAx>
       <c:spPr>
         <a:noFill/>
@@ -2853,7 +4415,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart9.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="ko-KR"/>
@@ -3186,640 +4748,6 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="ko-KR"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="이사만루체 Light" panose="00000300000000000000" pitchFamily="2" charset="-127"/>
-                <a:ea typeface="이사만루체 Light" panose="00000300000000000000" pitchFamily="2" charset="-127"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="ko-KR" altLang="en-US"/>
-              <a:t>성년후견인제도 인지도</a:t>
-            </a:r>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="이사만루체 Light" panose="00000300000000000000" pitchFamily="2" charset="-127"/>
-              <a:ea typeface="이사만루체 Light" panose="00000300000000000000" pitchFamily="2" charset="-127"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="ko-KR"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:barChart>
-        <c:barDir val="col"/>
-        <c:grouping val="clustered"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>성년후견인제도!$A$2</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>전국</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:srgbClr val="92D050"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:strRef>
-              <c:f>성년후견인제도!$B$1:$D$1</c:f>
-              <c:strCache>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>잘 알고 있다</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>들어봤지만
-잘 알지 못한다</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>모른다</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>성년후견인제도!$B$2:$D$2</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>34.200000000000003</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>55.8</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-A0C2-4E71-B0B0-40A2757FEF6F}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:gapWidth val="219"/>
-        <c:overlap val="-27"/>
-        <c:axId val="1909540784"/>
-        <c:axId val="1909545776"/>
-      </c:barChart>
-      <c:catAx>
-        <c:axId val="1909540784"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="15000"/>
-                <a:lumOff val="85000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="이사만루체 Light" panose="00000300000000000000" pitchFamily="2" charset="-127"/>
-                <a:ea typeface="이사만루체 Light" panose="00000300000000000000" pitchFamily="2" charset="-127"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="ko-KR"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="1909545776"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="1909545776"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="이사만루체 Light" panose="00000300000000000000" pitchFamily="2" charset="-127"/>
-                <a:ea typeface="이사만루체 Light" panose="00000300000000000000" pitchFamily="2" charset="-127"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="ko-KR"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="1909540784"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:extLst>
-      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
-        <c16r3:dataDisplayOptions16>
-          <c16r3:dispNaAsBlank val="1"/>
-        </c16r3:dataDisplayOptions16>
-      </c:ext>
-    </c:extLst>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr>
-          <a:latin typeface="이사만루체 Light" panose="00000300000000000000" pitchFamily="2" charset="-127"/>
-          <a:ea typeface="이사만루체 Light" panose="00000300000000000000" pitchFamily="2" charset="-127"/>
-        </a:defRPr>
-      </a:pPr>
-      <a:endParaRPr lang="ko-KR"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart9.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="ko-KR"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="이사만루체 Light" panose="00000300000000000000" pitchFamily="2" charset="-127"/>
-                <a:ea typeface="이사만루체 Light" panose="00000300000000000000" pitchFamily="2" charset="-127"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="ko-KR" altLang="en-US"/>
-              <a:t>주택연금 인지도</a:t>
-            </a:r>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="이사만루체 Light" panose="00000300000000000000" pitchFamily="2" charset="-127"/>
-              <a:ea typeface="이사만루체 Light" panose="00000300000000000000" pitchFamily="2" charset="-127"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="ko-KR"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:barChart>
-        <c:barDir val="col"/>
-        <c:grouping val="clustered"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>주택연금!$A$2</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>전국</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:srgbClr val="92D050"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:strRef>
-              <c:f>주택연금!$B$1:$D$1</c:f>
-              <c:strCache>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>잘 알고 있다</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>들어봤지만
-잘 알지 못한다</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>모른다</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>주택연금!$B$2:$D$2</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>29.4</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>44.3</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>26.3</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-3B76-459A-8CFD-888851D80B03}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:gapWidth val="219"/>
-        <c:overlap val="-27"/>
-        <c:axId val="1909544528"/>
-        <c:axId val="1909535376"/>
-      </c:barChart>
-      <c:catAx>
-        <c:axId val="1909544528"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="15000"/>
-                <a:lumOff val="85000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="이사만루체 Light" panose="00000300000000000000" pitchFamily="2" charset="-127"/>
-                <a:ea typeface="이사만루체 Light" panose="00000300000000000000" pitchFamily="2" charset="-127"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="ko-KR"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="1909535376"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="1909535376"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="이사만루체 Light" panose="00000300000000000000" pitchFamily="2" charset="-127"/>
-                <a:ea typeface="이사만루체 Light" panose="00000300000000000000" pitchFamily="2" charset="-127"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="ko-KR"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="1909544528"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:extLst>
-      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
-        <c16r3:dataDisplayOptions16>
-          <c16r3:dispNaAsBlank val="1"/>
-        </c16r3:dataDisplayOptions16>
-      </c:ext>
-    </c:extLst>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr>
-          <a:latin typeface="이사만루체 Light" panose="00000300000000000000" pitchFamily="2" charset="-127"/>
-          <a:ea typeface="이사만루체 Light" panose="00000300000000000000" pitchFamily="2" charset="-127"/>
-        </a:defRPr>
-      </a:pPr>
-      <a:endParaRPr lang="ko-KR"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -3861,6 +4789,86 @@
 </file>
 
 <file path=xl/charts/colors10.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors11.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors12.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -5226,8 +6234,8 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
+<file path=xl/charts/style11.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
@@ -5729,7 +6737,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style12.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -6232,8 +7240,8 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
@@ -6735,7 +7743,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -7238,7 +8246,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -7709,6 +8717,1003 @@
             <a:lumOff val="85000"/>
           </a:schemeClr>
         </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="286">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:upBar>
@@ -9327,20 +11332,61 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing10.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>488950</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>41275</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="차트 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E9CCE37E-BA87-42F9-C2AB-22E3A928A41D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>647700</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>60325</xdr:rowOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>222250</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>520700</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>212725</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>95250</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>98425</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -9454,6 +11500,83 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>247650</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>28574</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>50800</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>133349</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="차트 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B5CEB588-15BA-2561-05E4-AA6BD50AE1A0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>450850</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>400050</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>79375</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="차트 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{21250E86-525D-F341-3021-AD922D269BC8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>508000</xdr:colOff>
       <xdr:row>5</xdr:row>
@@ -9491,7 +11614,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -9532,7 +11655,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing8.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -9573,7 +11696,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing9.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -9594,47 +11717,6 @@
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
               <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{85C42A61-6023-8713-5B67-08B8BC945E1D}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr/>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing9.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>488950</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>104775</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>304800</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>41275</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="차트 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E9CCE37E-BA87-42F9-C2AB-22E3A928A41D}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -9954,8 +12036,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8A1ADC9A-55DF-42FE-85DB-9825C9BFD6E4}">
   <dimension ref="A1:F21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
@@ -10358,12 +12440,416 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FECDC387-9F6E-46E6-A11B-80DFF8B43A32}">
+  <dimension ref="A1:F21"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="T14" sqref="T14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
+  <sheetData>
+    <row r="1" spans="1:6" ht="68" x14ac:dyDescent="0.45">
+      <c r="A1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B2">
+        <v>13.2</v>
+      </c>
+      <c r="C2">
+        <v>41.2</v>
+      </c>
+      <c r="D2">
+        <v>45.6</v>
+      </c>
+      <c r="E2">
+        <v>100</v>
+      </c>
+      <c r="F2" s="1">
+        <v>9930</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3">
+        <v>9.3000000000000007</v>
+      </c>
+      <c r="C3">
+        <v>46.3</v>
+      </c>
+      <c r="D3">
+        <v>44.3</v>
+      </c>
+      <c r="E3">
+        <v>100</v>
+      </c>
+      <c r="F3" s="1">
+        <v>1805</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4">
+        <v>7.9</v>
+      </c>
+      <c r="C4">
+        <v>43.3</v>
+      </c>
+      <c r="D4">
+        <v>48.9</v>
+      </c>
+      <c r="E4">
+        <v>100</v>
+      </c>
+      <c r="F4">
+        <v>783</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5">
+        <v>18.600000000000001</v>
+      </c>
+      <c r="C5">
+        <v>59.7</v>
+      </c>
+      <c r="D5">
+        <v>21.7</v>
+      </c>
+      <c r="E5">
+        <v>100</v>
+      </c>
+      <c r="F5">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A6" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6">
+        <v>9.9</v>
+      </c>
+      <c r="C6">
+        <v>32.200000000000003</v>
+      </c>
+      <c r="D6">
+        <v>57.8</v>
+      </c>
+      <c r="E6">
+        <v>100</v>
+      </c>
+      <c r="F6">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7">
+        <v>18.399999999999999</v>
+      </c>
+      <c r="C7">
+        <v>61.1</v>
+      </c>
+      <c r="D7">
+        <v>20.5</v>
+      </c>
+      <c r="E7">
+        <v>100</v>
+      </c>
+      <c r="F7">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A8" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8">
+        <v>7.8</v>
+      </c>
+      <c r="C8">
+        <v>38.799999999999997</v>
+      </c>
+      <c r="D8">
+        <v>53.4</v>
+      </c>
+      <c r="E8">
+        <v>100</v>
+      </c>
+      <c r="F8">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A9" t="s">
+        <v>8</v>
+      </c>
+      <c r="B9">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="C9">
+        <v>40.700000000000003</v>
+      </c>
+      <c r="D9">
+        <v>54.4</v>
+      </c>
+      <c r="E9">
+        <v>100</v>
+      </c>
+      <c r="F9">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A10" t="s">
+        <v>9</v>
+      </c>
+      <c r="B10">
+        <v>8.6</v>
+      </c>
+      <c r="C10">
+        <v>36.5</v>
+      </c>
+      <c r="D10">
+        <v>54.9</v>
+      </c>
+      <c r="E10">
+        <v>100</v>
+      </c>
+      <c r="F10">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A11" t="s">
+        <v>10</v>
+      </c>
+      <c r="B11">
+        <v>9.4</v>
+      </c>
+      <c r="C11">
+        <v>37.9</v>
+      </c>
+      <c r="D11">
+        <v>52.7</v>
+      </c>
+      <c r="E11">
+        <v>100</v>
+      </c>
+      <c r="F11" s="1">
+        <v>2068</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A12" t="s">
+        <v>11</v>
+      </c>
+      <c r="B12">
+        <v>12</v>
+      </c>
+      <c r="C12">
+        <v>37.200000000000003</v>
+      </c>
+      <c r="D12">
+        <v>50.9</v>
+      </c>
+      <c r="E12">
+        <v>100</v>
+      </c>
+      <c r="F12">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A13" t="s">
+        <v>12</v>
+      </c>
+      <c r="B13">
+        <v>10.199999999999999</v>
+      </c>
+      <c r="C13">
+        <v>38</v>
+      </c>
+      <c r="D13">
+        <v>51.8</v>
+      </c>
+      <c r="E13">
+        <v>100</v>
+      </c>
+      <c r="F13">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A14" t="s">
+        <v>13</v>
+      </c>
+      <c r="B14">
+        <v>14.5</v>
+      </c>
+      <c r="C14">
+        <v>41.4</v>
+      </c>
+      <c r="D14">
+        <v>44</v>
+      </c>
+      <c r="E14">
+        <v>100</v>
+      </c>
+      <c r="F14">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A15" t="s">
+        <v>14</v>
+      </c>
+      <c r="B15">
+        <v>33.299999999999997</v>
+      </c>
+      <c r="C15">
+        <v>38.799999999999997</v>
+      </c>
+      <c r="D15">
+        <v>27.9</v>
+      </c>
+      <c r="E15">
+        <v>100</v>
+      </c>
+      <c r="F15">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A16" t="s">
+        <v>15</v>
+      </c>
+      <c r="B16">
+        <v>19.2</v>
+      </c>
+      <c r="C16">
+        <v>61.6</v>
+      </c>
+      <c r="D16">
+        <v>19.2</v>
+      </c>
+      <c r="E16">
+        <v>100</v>
+      </c>
+      <c r="F16">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A17" t="s">
+        <v>16</v>
+      </c>
+      <c r="B17">
+        <v>26.1</v>
+      </c>
+      <c r="C17">
+        <v>24.4</v>
+      </c>
+      <c r="D17">
+        <v>49.6</v>
+      </c>
+      <c r="E17">
+        <v>100</v>
+      </c>
+      <c r="F17">
+        <v>676</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A18" t="s">
+        <v>17</v>
+      </c>
+      <c r="B18">
+        <v>10.4</v>
+      </c>
+      <c r="C18">
+        <v>29.7</v>
+      </c>
+      <c r="D18">
+        <v>59.9</v>
+      </c>
+      <c r="E18">
+        <v>100</v>
+      </c>
+      <c r="F18">
+        <v>692</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A19" t="s">
+        <v>18</v>
+      </c>
+      <c r="B19">
+        <v>27.2</v>
+      </c>
+      <c r="C19">
+        <v>36.6</v>
+      </c>
+      <c r="D19">
+        <v>36.299999999999997</v>
+      </c>
+      <c r="E19">
+        <v>100</v>
+      </c>
+      <c r="F19">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A20" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A21" t="s">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4362343B-0B14-4069-9D42-440AE30D6EB4}">
   <dimension ref="A1:F21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+      <selection activeCell="B2" sqref="B2:D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
@@ -10766,8 +13252,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{41897110-76B6-43F8-8434-39FCDF324FF6}">
   <dimension ref="A1:F21"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="A32" sqref="A31:A32"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
@@ -11171,7 +13657,7 @@
   <dimension ref="A1:F21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="N25" sqref="N25"/>
+      <selection activeCell="B2" sqref="B2:D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
@@ -11571,400 +14057,235 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2B24EF20-BF44-4C8A-87E2-8E35C4698F9B}">
-  <dimension ref="A1:F21"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3CD9B54A-7605-46ED-A746-BE39BC288E9B}">
+  <dimension ref="A1:J10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="M24" sqref="M24"/>
+      <selection activeCell="I24" sqref="I24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="1" max="1" width="25.58203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.75" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="6.1640625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="68" x14ac:dyDescent="0.45">
-      <c r="A1" t="s">
-        <v>21</v>
-      </c>
-      <c r="B1" t="s">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="B1" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="F1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A2" t="s">
-        <v>22</v>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A2" s="3" t="s">
+        <v>25</v>
       </c>
       <c r="B2">
+        <v>29.4</v>
+      </c>
+      <c r="C2">
+        <v>44.3</v>
+      </c>
+      <c r="D2">
+        <v>26.3</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="H2" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="C2">
-        <v>45.5</v>
-      </c>
-      <c r="D2">
-        <v>28.5</v>
-      </c>
-      <c r="E2">
-        <v>100</v>
-      </c>
-      <c r="F2" s="1">
-        <v>9930</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A3" t="s">
-        <v>2</v>
+      <c r="I2" s="3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A3" s="3" t="s">
+        <v>26</v>
       </c>
       <c r="B3">
         <v>21.9</v>
       </c>
       <c r="C3">
-        <v>47.3</v>
+        <v>43.3</v>
       </c>
       <c r="D3">
-        <v>30.8</v>
-      </c>
-      <c r="E3">
-        <v>100</v>
-      </c>
-      <c r="F3" s="1">
-        <v>1805</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A4" t="s">
-        <v>3</v>
+        <v>34.9</v>
+      </c>
+      <c r="F3" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="G3">
+        <v>29.4</v>
+      </c>
+      <c r="H3">
+        <v>21.9</v>
+      </c>
+      <c r="I3">
+        <v>38.6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A4" s="3" t="s">
+        <v>31</v>
       </c>
       <c r="B4">
-        <v>32.5</v>
+        <v>38.6</v>
       </c>
       <c r="C4">
-        <v>45.3</v>
+        <v>46.9</v>
       </c>
       <c r="D4">
-        <v>22.2</v>
-      </c>
-      <c r="E4">
-        <v>100</v>
-      </c>
-      <c r="F4">
-        <v>783</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A5" t="s">
-        <v>4</v>
-      </c>
-      <c r="B5">
-        <v>33.6</v>
-      </c>
-      <c r="C5">
-        <v>47.8</v>
-      </c>
-      <c r="D5">
-        <v>18.600000000000001</v>
-      </c>
-      <c r="E5">
-        <v>100</v>
-      </c>
-      <c r="F5">
-        <v>472</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A6" t="s">
-        <v>5</v>
+        <v>14.5</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="G4">
+        <v>44.3</v>
+      </c>
+      <c r="H4">
+        <v>43.3</v>
+      </c>
+      <c r="I4">
+        <v>46.9</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A5" s="3"/>
+      <c r="F5" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="G5">
+        <v>26.3</v>
+      </c>
+      <c r="H5">
+        <v>34.9</v>
+      </c>
+      <c r="I5">
+        <v>14.5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A6" s="3" t="s">
+        <v>30</v>
       </c>
       <c r="B6">
-        <v>23.8</v>
+        <v>44.1</v>
       </c>
       <c r="C6">
-        <v>46.4</v>
+        <v>42.2</v>
       </c>
       <c r="D6">
-        <v>29.8</v>
-      </c>
-      <c r="E6">
-        <v>100</v>
-      </c>
-      <c r="F6">
-        <v>465</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A7" t="s">
-        <v>6</v>
+        <v>13.8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A7" s="3" t="s">
+        <v>29</v>
       </c>
       <c r="B7">
-        <v>28.7</v>
+        <v>29.7</v>
       </c>
       <c r="C7">
-        <v>54.9</v>
+        <v>44.7</v>
       </c>
       <c r="D7">
-        <v>16.399999999999999</v>
-      </c>
-      <c r="E7">
-        <v>100</v>
-      </c>
-      <c r="F7">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A8" t="s">
-        <v>7</v>
+        <v>25.7</v>
+      </c>
+      <c r="G7" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="H7" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="I7" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="J7" s="3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A8" s="3" t="s">
+        <v>28</v>
       </c>
       <c r="B8">
-        <v>19.3</v>
+        <v>26.9</v>
       </c>
       <c r="C8">
-        <v>48</v>
+        <v>45.8</v>
       </c>
       <c r="D8">
-        <v>32.700000000000003</v>
-      </c>
-      <c r="E8">
-        <v>100</v>
-      </c>
-      <c r="F8">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A9" t="s">
-        <v>8</v>
+        <v>27.2</v>
+      </c>
+      <c r="F8" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="G8">
+        <v>44.1</v>
+      </c>
+      <c r="H8">
+        <v>29.7</v>
+      </c>
+      <c r="I8">
+        <v>26.9</v>
+      </c>
+      <c r="J8">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A9" s="3" t="s">
+        <v>27</v>
       </c>
       <c r="B9">
-        <v>26.6</v>
+        <v>26</v>
       </c>
       <c r="C9">
-        <v>42.4</v>
+        <v>45.5</v>
       </c>
       <c r="D9">
-        <v>31</v>
-      </c>
-      <c r="E9">
-        <v>100</v>
-      </c>
-      <c r="F9">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A10" t="s">
-        <v>9</v>
-      </c>
-      <c r="B10">
-        <v>26.2</v>
-      </c>
-      <c r="C10">
-        <v>47.2</v>
-      </c>
-      <c r="D10">
-        <v>26.6</v>
-      </c>
-      <c r="E10">
-        <v>100</v>
-      </c>
-      <c r="F10">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A11" t="s">
-        <v>10</v>
-      </c>
-      <c r="B11">
-        <v>25.1</v>
-      </c>
-      <c r="C11">
-        <v>47.6</v>
-      </c>
-      <c r="D11">
-        <v>27.3</v>
-      </c>
-      <c r="E11">
-        <v>100</v>
-      </c>
-      <c r="F11" s="1">
-        <v>2068</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A12" t="s">
-        <v>11</v>
-      </c>
-      <c r="B12">
-        <v>36.4</v>
-      </c>
-      <c r="C12">
-        <v>38.5</v>
-      </c>
-      <c r="D12">
-        <v>25.1</v>
-      </c>
-      <c r="E12">
-        <v>100</v>
-      </c>
-      <c r="F12">
-        <v>376</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A13" t="s">
-        <v>12</v>
-      </c>
-      <c r="B13">
-        <v>17.2</v>
-      </c>
-      <c r="C13">
-        <v>47.2</v>
-      </c>
-      <c r="D13">
-        <v>35.6</v>
-      </c>
-      <c r="E13">
-        <v>100</v>
-      </c>
-      <c r="F13">
-        <v>337</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A14" t="s">
-        <v>13</v>
-      </c>
-      <c r="B14">
-        <v>20.399999999999999</v>
-      </c>
-      <c r="C14">
-        <v>51.9</v>
-      </c>
-      <c r="D14">
-        <v>27.7</v>
-      </c>
-      <c r="E14">
-        <v>100</v>
-      </c>
-      <c r="F14">
-        <v>473</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A15" t="s">
-        <v>14</v>
-      </c>
-      <c r="B15">
-        <v>40.700000000000003</v>
-      </c>
-      <c r="C15">
-        <v>41.9</v>
-      </c>
-      <c r="D15">
-        <v>17.399999999999999</v>
-      </c>
-      <c r="E15">
-        <v>100</v>
-      </c>
-      <c r="F15">
-        <v>459</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A16" t="s">
-        <v>15</v>
-      </c>
-      <c r="B16">
-        <v>27.1</v>
-      </c>
-      <c r="C16">
-        <v>47.1</v>
-      </c>
-      <c r="D16">
-        <v>25.8</v>
-      </c>
-      <c r="E16">
-        <v>100</v>
-      </c>
-      <c r="F16">
-        <v>511</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A17" t="s">
-        <v>16</v>
-      </c>
-      <c r="B17">
-        <v>20.3</v>
-      </c>
-      <c r="C17">
-        <v>31</v>
-      </c>
-      <c r="D17">
-        <v>48.7</v>
-      </c>
-      <c r="E17">
-        <v>100</v>
-      </c>
-      <c r="F17">
-        <v>676</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A18" t="s">
-        <v>17</v>
-      </c>
-      <c r="B18">
-        <v>25.6</v>
-      </c>
-      <c r="C18">
-        <v>43.6</v>
-      </c>
-      <c r="D18">
-        <v>30.9</v>
-      </c>
-      <c r="E18">
-        <v>100</v>
-      </c>
-      <c r="F18">
-        <v>692</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A19" t="s">
-        <v>18</v>
-      </c>
-      <c r="B19">
-        <v>35.200000000000003</v>
-      </c>
-      <c r="C19">
-        <v>42.3</v>
-      </c>
-      <c r="D19">
-        <v>22.5</v>
-      </c>
-      <c r="E19">
-        <v>100</v>
-      </c>
-      <c r="F19">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A20" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A21" t="s">
-        <v>0</v>
+        <v>28.5</v>
+      </c>
+      <c r="F9" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="G9">
+        <v>42.2</v>
+      </c>
+      <c r="H9">
+        <v>44.7</v>
+      </c>
+      <c r="I9">
+        <v>45.8</v>
+      </c>
+      <c r="J9">
+        <v>45.5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="F10" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="G10">
+        <v>13.8</v>
+      </c>
+      <c r="H10">
+        <v>25.7</v>
+      </c>
+      <c r="I10">
+        <v>27.2</v>
+      </c>
+      <c r="J10">
+        <v>28.5</v>
       </c>
     </row>
   </sheetData>
@@ -11975,11 +14296,11 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9468987C-67A9-4F03-BA85-7286547706DB}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2B24EF20-BF44-4C8A-87E2-8E35C4698F9B}">
   <dimension ref="A1:F21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G23" sqref="G23"/>
+      <selection activeCell="B2" sqref="B2:D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
@@ -12006,13 +14327,13 @@
         <v>22</v>
       </c>
       <c r="B2">
-        <v>21.9</v>
+        <v>26</v>
       </c>
       <c r="C2">
-        <v>43.3</v>
+        <v>45.5</v>
       </c>
       <c r="D2">
-        <v>34.9</v>
+        <v>28.5</v>
       </c>
       <c r="E2">
         <v>100</v>
@@ -12026,13 +14347,13 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>18.7</v>
+        <v>21.9</v>
       </c>
       <c r="C3">
-        <v>49.4</v>
+        <v>47.3</v>
       </c>
       <c r="D3">
-        <v>31.9</v>
+        <v>30.8</v>
       </c>
       <c r="E3">
         <v>100</v>
@@ -12046,13 +14367,13 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>24.8</v>
+        <v>32.5</v>
       </c>
       <c r="C4">
-        <v>45.5</v>
+        <v>45.3</v>
       </c>
       <c r="D4">
-        <v>29.7</v>
+        <v>22.2</v>
       </c>
       <c r="E4">
         <v>100</v>
@@ -12066,13 +14387,13 @@
         <v>4</v>
       </c>
       <c r="B5">
-        <v>27.9</v>
+        <v>33.6</v>
       </c>
       <c r="C5">
-        <v>50.5</v>
+        <v>47.8</v>
       </c>
       <c r="D5">
-        <v>21.5</v>
+        <v>18.600000000000001</v>
       </c>
       <c r="E5">
         <v>100</v>
@@ -12086,13 +14407,13 @@
         <v>5</v>
       </c>
       <c r="B6">
-        <v>10.5</v>
+        <v>23.8</v>
       </c>
       <c r="C6">
-        <v>44.8</v>
+        <v>46.4</v>
       </c>
       <c r="D6">
-        <v>44.6</v>
+        <v>29.8</v>
       </c>
       <c r="E6">
         <v>100</v>
@@ -12106,13 +14427,13 @@
         <v>6</v>
       </c>
       <c r="B7">
-        <v>19.7</v>
+        <v>28.7</v>
       </c>
       <c r="C7">
-        <v>54.2</v>
+        <v>54.9</v>
       </c>
       <c r="D7">
-        <v>26</v>
+        <v>16.399999999999999</v>
       </c>
       <c r="E7">
         <v>100</v>
@@ -12129,10 +14450,10 @@
         <v>19.3</v>
       </c>
       <c r="C8">
-        <v>41.2</v>
+        <v>48</v>
       </c>
       <c r="D8">
-        <v>39.5</v>
+        <v>32.700000000000003</v>
       </c>
       <c r="E8">
         <v>100</v>
@@ -12146,13 +14467,13 @@
         <v>8</v>
       </c>
       <c r="B9">
-        <v>22.4</v>
+        <v>26.6</v>
       </c>
       <c r="C9">
-        <v>33.700000000000003</v>
+        <v>42.4</v>
       </c>
       <c r="D9">
-        <v>43.9</v>
+        <v>31</v>
       </c>
       <c r="E9">
         <v>100</v>
@@ -12166,13 +14487,13 @@
         <v>9</v>
       </c>
       <c r="B10">
-        <v>13</v>
+        <v>26.2</v>
       </c>
       <c r="C10">
-        <v>45.2</v>
+        <v>47.2</v>
       </c>
       <c r="D10">
-        <v>41.8</v>
+        <v>26.6</v>
       </c>
       <c r="E10">
         <v>100</v>
@@ -12186,13 +14507,13 @@
         <v>10</v>
       </c>
       <c r="B11">
-        <v>21</v>
+        <v>25.1</v>
       </c>
       <c r="C11">
-        <v>48.5</v>
+        <v>47.6</v>
       </c>
       <c r="D11">
-        <v>30.5</v>
+        <v>27.3</v>
       </c>
       <c r="E11">
         <v>100</v>
@@ -12206,13 +14527,13 @@
         <v>11</v>
       </c>
       <c r="B12">
+        <v>36.4</v>
+      </c>
+      <c r="C12">
         <v>38.5</v>
       </c>
-      <c r="C12">
-        <v>28.4</v>
-      </c>
       <c r="D12">
-        <v>33.1</v>
+        <v>25.1</v>
       </c>
       <c r="E12">
         <v>100</v>
@@ -12226,13 +14547,13 @@
         <v>12</v>
       </c>
       <c r="B13">
-        <v>16.8</v>
+        <v>17.2</v>
       </c>
       <c r="C13">
-        <v>40.799999999999997</v>
+        <v>47.2</v>
       </c>
       <c r="D13">
-        <v>42.3</v>
+        <v>35.6</v>
       </c>
       <c r="E13">
         <v>100</v>
@@ -12246,13 +14567,13 @@
         <v>13</v>
       </c>
       <c r="B14">
-        <v>19.3</v>
+        <v>20.399999999999999</v>
       </c>
       <c r="C14">
-        <v>45</v>
+        <v>51.9</v>
       </c>
       <c r="D14">
-        <v>35.799999999999997</v>
+        <v>27.7</v>
       </c>
       <c r="E14">
         <v>100</v>
@@ -12266,13 +14587,13 @@
         <v>14</v>
       </c>
       <c r="B15">
-        <v>26.7</v>
+        <v>40.700000000000003</v>
       </c>
       <c r="C15">
-        <v>38</v>
+        <v>41.9</v>
       </c>
       <c r="D15">
-        <v>35.299999999999997</v>
+        <v>17.399999999999999</v>
       </c>
       <c r="E15">
         <v>100</v>
@@ -12286,13 +14607,13 @@
         <v>15</v>
       </c>
       <c r="B16">
-        <v>22.2</v>
+        <v>27.1</v>
       </c>
       <c r="C16">
-        <v>48.3</v>
+        <v>47.1</v>
       </c>
       <c r="D16">
-        <v>29.5</v>
+        <v>25.8</v>
       </c>
       <c r="E16">
         <v>100</v>
@@ -12306,13 +14627,13 @@
         <v>16</v>
       </c>
       <c r="B17">
-        <v>27.1</v>
+        <v>20.3</v>
       </c>
       <c r="C17">
-        <v>21.3</v>
+        <v>31</v>
       </c>
       <c r="D17">
-        <v>51.7</v>
+        <v>48.7</v>
       </c>
       <c r="E17">
         <v>100</v>
@@ -12326,13 +14647,13 @@
         <v>17</v>
       </c>
       <c r="B18">
-        <v>21.8</v>
+        <v>25.6</v>
       </c>
       <c r="C18">
-        <v>33.6</v>
+        <v>43.6</v>
       </c>
       <c r="D18">
-        <v>44.6</v>
+        <v>30.9</v>
       </c>
       <c r="E18">
         <v>100</v>
@@ -12346,13 +14667,13 @@
         <v>18</v>
       </c>
       <c r="B19">
-        <v>19.600000000000001</v>
+        <v>35.200000000000003</v>
       </c>
       <c r="C19">
-        <v>31.7</v>
+        <v>42.3</v>
       </c>
       <c r="D19">
-        <v>48.7</v>
+        <v>22.5</v>
       </c>
       <c r="E19">
         <v>100</v>
@@ -12379,6 +14700,410 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9468987C-67A9-4F03-BA85-7286547706DB}">
+  <dimension ref="A1:F21"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G4" sqref="G4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
+  <sheetData>
+    <row r="1" spans="1:6" ht="68" x14ac:dyDescent="0.45">
+      <c r="A1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B2">
+        <v>21.9</v>
+      </c>
+      <c r="C2">
+        <v>43.3</v>
+      </c>
+      <c r="D2">
+        <v>34.9</v>
+      </c>
+      <c r="E2">
+        <v>100</v>
+      </c>
+      <c r="F2" s="1">
+        <v>9930</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3">
+        <v>18.7</v>
+      </c>
+      <c r="C3">
+        <v>49.4</v>
+      </c>
+      <c r="D3">
+        <v>31.9</v>
+      </c>
+      <c r="E3">
+        <v>100</v>
+      </c>
+      <c r="F3" s="1">
+        <v>1805</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4">
+        <v>24.8</v>
+      </c>
+      <c r="C4">
+        <v>45.5</v>
+      </c>
+      <c r="D4">
+        <v>29.7</v>
+      </c>
+      <c r="E4">
+        <v>100</v>
+      </c>
+      <c r="F4">
+        <v>783</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5">
+        <v>27.9</v>
+      </c>
+      <c r="C5">
+        <v>50.5</v>
+      </c>
+      <c r="D5">
+        <v>21.5</v>
+      </c>
+      <c r="E5">
+        <v>100</v>
+      </c>
+      <c r="F5">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A6" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6">
+        <v>10.5</v>
+      </c>
+      <c r="C6">
+        <v>44.8</v>
+      </c>
+      <c r="D6">
+        <v>44.6</v>
+      </c>
+      <c r="E6">
+        <v>100</v>
+      </c>
+      <c r="F6">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7">
+        <v>19.7</v>
+      </c>
+      <c r="C7">
+        <v>54.2</v>
+      </c>
+      <c r="D7">
+        <v>26</v>
+      </c>
+      <c r="E7">
+        <v>100</v>
+      </c>
+      <c r="F7">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A8" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8">
+        <v>19.3</v>
+      </c>
+      <c r="C8">
+        <v>41.2</v>
+      </c>
+      <c r="D8">
+        <v>39.5</v>
+      </c>
+      <c r="E8">
+        <v>100</v>
+      </c>
+      <c r="F8">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A9" t="s">
+        <v>8</v>
+      </c>
+      <c r="B9">
+        <v>22.4</v>
+      </c>
+      <c r="C9">
+        <v>33.700000000000003</v>
+      </c>
+      <c r="D9">
+        <v>43.9</v>
+      </c>
+      <c r="E9">
+        <v>100</v>
+      </c>
+      <c r="F9">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A10" t="s">
+        <v>9</v>
+      </c>
+      <c r="B10">
+        <v>13</v>
+      </c>
+      <c r="C10">
+        <v>45.2</v>
+      </c>
+      <c r="D10">
+        <v>41.8</v>
+      </c>
+      <c r="E10">
+        <v>100</v>
+      </c>
+      <c r="F10">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A11" t="s">
+        <v>10</v>
+      </c>
+      <c r="B11">
+        <v>21</v>
+      </c>
+      <c r="C11">
+        <v>48.5</v>
+      </c>
+      <c r="D11">
+        <v>30.5</v>
+      </c>
+      <c r="E11">
+        <v>100</v>
+      </c>
+      <c r="F11" s="1">
+        <v>2068</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A12" t="s">
+        <v>11</v>
+      </c>
+      <c r="B12">
+        <v>38.5</v>
+      </c>
+      <c r="C12">
+        <v>28.4</v>
+      </c>
+      <c r="D12">
+        <v>33.1</v>
+      </c>
+      <c r="E12">
+        <v>100</v>
+      </c>
+      <c r="F12">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A13" t="s">
+        <v>12</v>
+      </c>
+      <c r="B13">
+        <v>16.8</v>
+      </c>
+      <c r="C13">
+        <v>40.799999999999997</v>
+      </c>
+      <c r="D13">
+        <v>42.3</v>
+      </c>
+      <c r="E13">
+        <v>100</v>
+      </c>
+      <c r="F13">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A14" t="s">
+        <v>13</v>
+      </c>
+      <c r="B14">
+        <v>19.3</v>
+      </c>
+      <c r="C14">
+        <v>45</v>
+      </c>
+      <c r="D14">
+        <v>35.799999999999997</v>
+      </c>
+      <c r="E14">
+        <v>100</v>
+      </c>
+      <c r="F14">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A15" t="s">
+        <v>14</v>
+      </c>
+      <c r="B15">
+        <v>26.7</v>
+      </c>
+      <c r="C15">
+        <v>38</v>
+      </c>
+      <c r="D15">
+        <v>35.299999999999997</v>
+      </c>
+      <c r="E15">
+        <v>100</v>
+      </c>
+      <c r="F15">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A16" t="s">
+        <v>15</v>
+      </c>
+      <c r="B16">
+        <v>22.2</v>
+      </c>
+      <c r="C16">
+        <v>48.3</v>
+      </c>
+      <c r="D16">
+        <v>29.5</v>
+      </c>
+      <c r="E16">
+        <v>100</v>
+      </c>
+      <c r="F16">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A17" t="s">
+        <v>16</v>
+      </c>
+      <c r="B17">
+        <v>27.1</v>
+      </c>
+      <c r="C17">
+        <v>21.3</v>
+      </c>
+      <c r="D17">
+        <v>51.7</v>
+      </c>
+      <c r="E17">
+        <v>100</v>
+      </c>
+      <c r="F17">
+        <v>676</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A18" t="s">
+        <v>17</v>
+      </c>
+      <c r="B18">
+        <v>21.8</v>
+      </c>
+      <c r="C18">
+        <v>33.6</v>
+      </c>
+      <c r="D18">
+        <v>44.6</v>
+      </c>
+      <c r="E18">
+        <v>100</v>
+      </c>
+      <c r="F18">
+        <v>692</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A19" t="s">
+        <v>18</v>
+      </c>
+      <c r="B19">
+        <v>19.600000000000001</v>
+      </c>
+      <c r="C19">
+        <v>31.7</v>
+      </c>
+      <c r="D19">
+        <v>48.7</v>
+      </c>
+      <c r="E19">
+        <v>100</v>
+      </c>
+      <c r="F19">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A20" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A21" t="s">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BA8689B4-B009-4F84-948C-9BB1440214BF}">
   <dimension ref="A1:F21"/>
   <sheetViews>
@@ -12782,12 +15507,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0AEE383E-0FB7-47A7-B737-7BE80D44AD99}">
   <dimension ref="A1:F21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="Q24" sqref="Q24"/>
+      <selection activeCell="B1" sqref="B1:D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
@@ -13184,408 +15909,4 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FECDC387-9F6E-46E6-A11B-80DFF8B43A32}">
-  <dimension ref="A1:F21"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="T14" sqref="T14"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
-  <sheetData>
-    <row r="1" spans="1:6" ht="68" x14ac:dyDescent="0.45">
-      <c r="A1" t="s">
-        <v>21</v>
-      </c>
-      <c r="B1" t="s">
-        <v>19</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="D1" t="s">
-        <v>23</v>
-      </c>
-      <c r="F1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A2" t="s">
-        <v>22</v>
-      </c>
-      <c r="B2">
-        <v>13.2</v>
-      </c>
-      <c r="C2">
-        <v>41.2</v>
-      </c>
-      <c r="D2">
-        <v>45.6</v>
-      </c>
-      <c r="E2">
-        <v>100</v>
-      </c>
-      <c r="F2" s="1">
-        <v>9930</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3">
-        <v>9.3000000000000007</v>
-      </c>
-      <c r="C3">
-        <v>46.3</v>
-      </c>
-      <c r="D3">
-        <v>44.3</v>
-      </c>
-      <c r="E3">
-        <v>100</v>
-      </c>
-      <c r="F3" s="1">
-        <v>1805</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A4" t="s">
-        <v>3</v>
-      </c>
-      <c r="B4">
-        <v>7.9</v>
-      </c>
-      <c r="C4">
-        <v>43.3</v>
-      </c>
-      <c r="D4">
-        <v>48.9</v>
-      </c>
-      <c r="E4">
-        <v>100</v>
-      </c>
-      <c r="F4">
-        <v>783</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A5" t="s">
-        <v>4</v>
-      </c>
-      <c r="B5">
-        <v>18.600000000000001</v>
-      </c>
-      <c r="C5">
-        <v>59.7</v>
-      </c>
-      <c r="D5">
-        <v>21.7</v>
-      </c>
-      <c r="E5">
-        <v>100</v>
-      </c>
-      <c r="F5">
-        <v>472</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A6" t="s">
-        <v>5</v>
-      </c>
-      <c r="B6">
-        <v>9.9</v>
-      </c>
-      <c r="C6">
-        <v>32.200000000000003</v>
-      </c>
-      <c r="D6">
-        <v>57.8</v>
-      </c>
-      <c r="E6">
-        <v>100</v>
-      </c>
-      <c r="F6">
-        <v>465</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A7" t="s">
-        <v>6</v>
-      </c>
-      <c r="B7">
-        <v>18.399999999999999</v>
-      </c>
-      <c r="C7">
-        <v>61.1</v>
-      </c>
-      <c r="D7">
-        <v>20.5</v>
-      </c>
-      <c r="E7">
-        <v>100</v>
-      </c>
-      <c r="F7">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A8" t="s">
-        <v>7</v>
-      </c>
-      <c r="B8">
-        <v>7.8</v>
-      </c>
-      <c r="C8">
-        <v>38.799999999999997</v>
-      </c>
-      <c r="D8">
-        <v>53.4</v>
-      </c>
-      <c r="E8">
-        <v>100</v>
-      </c>
-      <c r="F8">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A9" t="s">
-        <v>8</v>
-      </c>
-      <c r="B9">
-        <v>4.9000000000000004</v>
-      </c>
-      <c r="C9">
-        <v>40.700000000000003</v>
-      </c>
-      <c r="D9">
-        <v>54.4</v>
-      </c>
-      <c r="E9">
-        <v>100</v>
-      </c>
-      <c r="F9">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A10" t="s">
-        <v>9</v>
-      </c>
-      <c r="B10">
-        <v>8.6</v>
-      </c>
-      <c r="C10">
-        <v>36.5</v>
-      </c>
-      <c r="D10">
-        <v>54.9</v>
-      </c>
-      <c r="E10">
-        <v>100</v>
-      </c>
-      <c r="F10">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A11" t="s">
-        <v>10</v>
-      </c>
-      <c r="B11">
-        <v>9.4</v>
-      </c>
-      <c r="C11">
-        <v>37.9</v>
-      </c>
-      <c r="D11">
-        <v>52.7</v>
-      </c>
-      <c r="E11">
-        <v>100</v>
-      </c>
-      <c r="F11" s="1">
-        <v>2068</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A12" t="s">
-        <v>11</v>
-      </c>
-      <c r="B12">
-        <v>12</v>
-      </c>
-      <c r="C12">
-        <v>37.200000000000003</v>
-      </c>
-      <c r="D12">
-        <v>50.9</v>
-      </c>
-      <c r="E12">
-        <v>100</v>
-      </c>
-      <c r="F12">
-        <v>376</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A13" t="s">
-        <v>12</v>
-      </c>
-      <c r="B13">
-        <v>10.199999999999999</v>
-      </c>
-      <c r="C13">
-        <v>38</v>
-      </c>
-      <c r="D13">
-        <v>51.8</v>
-      </c>
-      <c r="E13">
-        <v>100</v>
-      </c>
-      <c r="F13">
-        <v>337</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A14" t="s">
-        <v>13</v>
-      </c>
-      <c r="B14">
-        <v>14.5</v>
-      </c>
-      <c r="C14">
-        <v>41.4</v>
-      </c>
-      <c r="D14">
-        <v>44</v>
-      </c>
-      <c r="E14">
-        <v>100</v>
-      </c>
-      <c r="F14">
-        <v>473</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A15" t="s">
-        <v>14</v>
-      </c>
-      <c r="B15">
-        <v>33.299999999999997</v>
-      </c>
-      <c r="C15">
-        <v>38.799999999999997</v>
-      </c>
-      <c r="D15">
-        <v>27.9</v>
-      </c>
-      <c r="E15">
-        <v>100</v>
-      </c>
-      <c r="F15">
-        <v>459</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A16" t="s">
-        <v>15</v>
-      </c>
-      <c r="B16">
-        <v>19.2</v>
-      </c>
-      <c r="C16">
-        <v>61.6</v>
-      </c>
-      <c r="D16">
-        <v>19.2</v>
-      </c>
-      <c r="E16">
-        <v>100</v>
-      </c>
-      <c r="F16">
-        <v>511</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A17" t="s">
-        <v>16</v>
-      </c>
-      <c r="B17">
-        <v>26.1</v>
-      </c>
-      <c r="C17">
-        <v>24.4</v>
-      </c>
-      <c r="D17">
-        <v>49.6</v>
-      </c>
-      <c r="E17">
-        <v>100</v>
-      </c>
-      <c r="F17">
-        <v>676</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A18" t="s">
-        <v>17</v>
-      </c>
-      <c r="B18">
-        <v>10.4</v>
-      </c>
-      <c r="C18">
-        <v>29.7</v>
-      </c>
-      <c r="D18">
-        <v>59.9</v>
-      </c>
-      <c r="E18">
-        <v>100</v>
-      </c>
-      <c r="F18">
-        <v>692</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A19" t="s">
-        <v>18</v>
-      </c>
-      <c r="B19">
-        <v>27.2</v>
-      </c>
-      <c r="C19">
-        <v>36.6</v>
-      </c>
-      <c r="D19">
-        <v>36.299999999999997</v>
-      </c>
-      <c r="E19">
-        <v>100</v>
-      </c>
-      <c r="F19">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A20" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A21" t="s">
-        <v>0</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
-</worksheet>
 </file>